--- a/docs/testes-integracao.xlsx
+++ b/docs/testes-integracao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibrasilcombr-my.sharepoint.com/personal/2019102845_unibrasil_com_br/Documents/Facul/PP-Dev-Qualidade/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\Caca-Curso_Back-end\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D802F92-7D95-4192-A980-C4A705CA0DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A077C2CD-245F-4AE6-8212-F4DA6699B16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3BD6947E-446F-41CB-AC53-A68FE1B4C46F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>História</t>
   </si>
@@ -82,6 +82,33 @@
   </si>
   <si>
     <t>Pendente</t>
+  </si>
+  <si>
+    <t>7 - Permitir o usuário avaliar com gostei/não gostei</t>
+  </si>
+  <si>
+    <t>13 - Permitir o usuário favoritar cursos</t>
+  </si>
+  <si>
+    <t>8 - Permitir o usuário avaliar um curso com comentário</t>
+  </si>
+  <si>
+    <t>Clicando no curso após a pesquisa, foi mostrado a tela de detalhes do curso, na caixa de texto disponível, foi digitado o comentário e ao postar, a tela foi atualizada mostrando o comentário e todos os outros que o curso possuia</t>
+  </si>
+  <si>
+    <t>Ao clicar em um curso, depois da pesquisa ser efetuada, o usuário é redirecionado para a página dos detalhes do curso, onde estará disponível para ele uma caixa de texto e um botão para submeter o comentário, após a realização do mesmo, a tela é atualizada com o comentário recém postado e os demais</t>
+  </si>
+  <si>
+    <t>Ao clicar em um curso, depois da pesquisa ser efetuada, o usuário é redirecionado para a página dos detalhes do curso, tela esta que deve disponibilizar o botão para o usuário favoritar o curso que está na tela</t>
+  </si>
+  <si>
+    <t>Clicando no curso após a pesquisa, foi mostrado a tela de detalhes do curso, e também o botão para favoritar o curso</t>
+  </si>
+  <si>
+    <t>Ao clicar na aba de cursos favoritados o aplicativo deve listar todos os cursos que o usuário logado favoritou e se não tiver usuário logado, sugerir para que faça o login</t>
+  </si>
+  <si>
+    <t>Indo na aba de cursos favoritados, foi listado todos que o usuário logado favoritou e sem login foi sugerido para que o usuário o faça</t>
   </si>
 </sst>
 </file>
@@ -489,15 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E945CD8-3F0F-4490-AB5B-0B175001DCE7}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="75.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="73.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
@@ -574,6 +601,72 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/testes-integracao.xlsx
+++ b/docs/testes-integracao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\Caca-Curso_Back-end\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RN\Caca-Curso_Back-end\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A077C2CD-245F-4AE6-8212-F4DA6699B16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11B9E34-34EB-451D-8602-8B1DE2F5C7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3BD6947E-446F-41CB-AC53-A68FE1B4C46F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3BD6947E-446F-41CB-AC53-A68FE1B4C46F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>História</t>
   </si>
@@ -109,6 +109,39 @@
   </si>
   <si>
     <t>Indo na aba de cursos favoritados, foi listado todos que o usuário logado favoritou e sem login foi sugerido para que o usuário o faça</t>
+  </si>
+  <si>
+    <t>7 - Permitir o usuário favoritar o curso</t>
+  </si>
+  <si>
+    <t>Após o usuário efetuar uma pesquisa e selecionar um curso, ou selecionar um a partir deseus cursos recomendados, será possivel, além de ver os detalhes do mesmo, será possivel salvar o curso como um de seus favoritos, podendo assim, ao acessar a tela de favoritos (apenaas para usuários logados), ter acesso mais direto aquele curso</t>
+  </si>
+  <si>
+    <t>Assim que o usuário efetuar uma pesquisa e selecionar um curso, ou selecionar a partir de seus recomendos/favoritos, será possivel adicionar uma avaliação para o mesmo, definindo se o curso será do gosto do usuário ou não, com um like, ou um deslike</t>
+  </si>
+  <si>
+    <t>Após a realização da pesquisa e seleção de algum curso vindo dos resultados da pesquisa, ou de seus recomendados/favoritos, a tela com detalhes para o curso selecionado, o app salva as informações que o usuário quer, como like ou deslike para o curso</t>
+  </si>
+  <si>
+    <t>Após a realização da pesquisa e seleção de algum curso vindo dos resultados da pesquisa, ou de seus recomendados/favoritos, a tela com detalhes para o curso selecionado, o app salva as informações que o usuário quer, como favoritar um curso para que o acesso ao mesmo seja feito de forma mais rápida a partir da tela de favoritos</t>
+  </si>
+  <si>
+    <t>14 - Permitir usuário ver informações básicas sobre seu perfil</t>
+  </si>
+  <si>
+    <t>Ao efetuar login e ir para página de configurações, havera uma opção para que o usuário possa ver informações básicas como nome e-mail, obtidas diretamente do seu provedor externo selecionado como fonte para efetuar o login</t>
+  </si>
+  <si>
+    <t>Ao clicar na opção de perfil na tela de configurações, a tela de perfil de usuário foi carregada com base nas informações coletadas do provedor de login externo que o usuário utilizou, as mesmas são exibidas de forma direta e simples</t>
+  </si>
+  <si>
+    <t>15 - Validar autenticação do usuário</t>
+  </si>
+  <si>
+    <t>Ao entrar no app, validar se o usuário está autenticado ou não para limitar as funcionalidades disponiveis para o mesmo, por exemplo, favoritos e recomendados estão disponiveis apenas para usuários logados</t>
+  </si>
+  <si>
+    <t>Quando o usuário inicia o app, todas as telas possuem uma validação para definir se o acesso ao recurso está liberado ou não, as telas de favoritos, recomendados e perfil não estão disponiveis para usuários não autenticados</t>
   </si>
 </sst>
 </file>
@@ -177,7 +210,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +231,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E945CD8-3F0F-4490-AB5B-0B175001DCE7}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -597,18 +636,36 @@
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -667,6 +724,35 @@
         <v>15</v>
       </c>
     </row>
+    <row r="12" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
